--- a/QSAR/table2/模型结果.xlsx
+++ b/QSAR/table2/模型结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_work\master-s-thesis-project\QSAR\table2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3916DAD2-4F51-4B11-A7BF-E31DDA880971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23C593-680A-4D7D-BA37-442262D489BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="3048" windowWidth="13524" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>模型编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>梯度提升树（GB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecotoxicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Health</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,10 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -695,6 +712,426 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.877</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>98</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
